--- a/flows/PCY_fund_flow_data.xlsx
+++ b/flows/PCY_fund_flow_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4121"/>
+  <dimension ref="A1:B4139"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -41645,6 +41645,186 @@
         <v>0</v>
       </c>
     </row>
+    <row r="4122">
+      <c r="A4122" t="inlineStr">
+        <is>
+          <t>2024-02-21</t>
+        </is>
+      </c>
+      <c r="B4122" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4123">
+      <c r="A4123" t="inlineStr">
+        <is>
+          <t>2024-02-22</t>
+        </is>
+      </c>
+      <c r="B4123" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4124">
+      <c r="A4124" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B4124" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4125">
+      <c r="A4125" t="inlineStr">
+        <is>
+          <t>2024-02-26</t>
+        </is>
+      </c>
+      <c r="B4125" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4126">
+      <c r="A4126" t="inlineStr">
+        <is>
+          <t>2024-02-27</t>
+        </is>
+      </c>
+      <c r="B4126" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4127">
+      <c r="A4127" t="inlineStr">
+        <is>
+          <t>2024-02-28</t>
+        </is>
+      </c>
+      <c r="B4127" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4128">
+      <c r="A4128" t="inlineStr">
+        <is>
+          <t>2024-02-29</t>
+        </is>
+      </c>
+      <c r="B4128" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4129">
+      <c r="A4129" t="inlineStr">
+        <is>
+          <t>2024-03-01</t>
+        </is>
+      </c>
+      <c r="B4129" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4130">
+      <c r="A4130" t="inlineStr">
+        <is>
+          <t>2024-03-04</t>
+        </is>
+      </c>
+      <c r="B4130" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4131">
+      <c r="A4131" t="inlineStr">
+        <is>
+          <t>2024-03-05</t>
+        </is>
+      </c>
+      <c r="B4131" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4132">
+      <c r="A4132" t="inlineStr">
+        <is>
+          <t>2024-03-06</t>
+        </is>
+      </c>
+      <c r="B4132" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4133">
+      <c r="A4133" t="inlineStr">
+        <is>
+          <t>2024-03-07</t>
+        </is>
+      </c>
+      <c r="B4133" t="n">
+        <v>-6.1248</v>
+      </c>
+    </row>
+    <row r="4134">
+      <c r="A4134" t="inlineStr">
+        <is>
+          <t>2024-03-08</t>
+        </is>
+      </c>
+      <c r="B4134" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4135">
+      <c r="A4135" t="inlineStr">
+        <is>
+          <t>2024-03-11</t>
+        </is>
+      </c>
+      <c r="B4135" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4136">
+      <c r="A4136" t="inlineStr">
+        <is>
+          <t>2024-03-12</t>
+        </is>
+      </c>
+      <c r="B4136" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4137">
+      <c r="A4137" t="inlineStr">
+        <is>
+          <t>2024-03-13</t>
+        </is>
+      </c>
+      <c r="B4137" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4138">
+      <c r="A4138" t="inlineStr">
+        <is>
+          <t>2024-03-14</t>
+        </is>
+      </c>
+      <c r="B4138" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4139">
+      <c r="A4139" t="inlineStr">
+        <is>
+          <t>2024-03-15</t>
+        </is>
+      </c>
+      <c r="B4139" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
